--- a/bots/crawl_ch/output/electronics_2022-08-24.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-24.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -942,50 +942,48 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4014528</t>
+          <t>6762336</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AAA/LR03 10 Stück</t>
+          <t>Duracell Batterien Optimum AAA/LR03 8 Stück</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-batterien-aaalr03-10-stueck/p/4014528</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-optimum-aaalr03-8-stueck/p/6762336</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10ST</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
+          <t>8ST</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.70/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -995,7 +993,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1010,53 +1008,55 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AAA/LR03 10 Stück 16.95 Schweizer Franken</t>
+          <t>Duracell Batterien Optimum AAA/LR03 8 Stück 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6762336</t>
+          <t>4014528</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AAA/LR03 8 Stück</t>
+          <t>Varta Longlife Batterien AAA/LR03 10 Stück</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-optimum-aaalr03-8-stueck/p/6762336</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-batterien-aaalr03-10-stueck/p/4014528</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8ST</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>10ST</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>1.70/1ST</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1081,12 +1081,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AAA/LR03 8 Stück 19.95 Schweizer Franken</t>
+          <t>Varta Longlife Batterien AAA/LR03 10 Stück 16.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1664,50 +1664,48 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3494865</t>
+          <t>6761133</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1717,7 +1715,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1732,53 +1730,55 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6761133</t>
+          <t>3494865</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
+          <t>Varta Electronics CR2430 1er Bli</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1803,12 +1803,12 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1881,29 +1881,29 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3494234</t>
+          <t>6577801</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GA 1er Bli</t>
+          <t>Duracell Knopfzelle CR2025 2 Stück</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13ga-1er-bli/p/3494234</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2025-2-stueck/p/6577801</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1912,17 +1912,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2.95/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1947,34 +1947,34 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GA 1er Bli 2.95 Schweizer Franken</t>
+          <t>Duracell Knopfzelle CR2025 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6753557</t>
+          <t>3494234</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
+          <t>Varta Electronics V13GA 1er Bli</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13ga-1er-bli/p/3494234</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>2.95/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2013,60 +2013,58 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Electronics V13GA 1er Bli 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3494233</t>
+          <t>6753557</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>2</v>
-      </c>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2076,7 +2074,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2086,58 +2084,60 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6577801</t>
+          <t>3494233</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2025 2 Stück</t>
+          <t>Varta Electronics CR2032 1er Bli</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2025-2-stueck/p/6577801</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2162,12 +2162,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2025 2 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2508,36 +2508,36 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3494133</t>
+          <t>3494130</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 8er Bli</t>
+          <t>Varta Longlife Power AA 4er Bli</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-8er-bli/p/3494133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2546,12 +2546,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1.87/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2576,41 +2576,41 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 8er Bli 14.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3494130</t>
+          <t>3494133</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli</t>
+          <t>Varta Longlife Power AA 8er Bli</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-8er-bli/p/3494133</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>8ST</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2619,12 +2619,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2.24/1ST</t>
+          <t>1.87/1ST</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2649,12 +2649,12 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AA 8er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -4040,24 +4040,24 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5872164</t>
+          <t>4881282</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2</t>
+          <t>Miele FJM HyClean 3D (4 Stück)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-fjm-hyclean-3d-4-stueck/p/4881282</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -4067,12 +4067,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Miele</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>34.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -4086,134 +4086,134 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
+          <t>Miele FJM HyClean 3D (4 Stück) 50% Aktion 8.95 Schweizer Franken statt 17.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4096628</t>
+          <t>5872164</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
+          <t>Satrap Tischventilator Venti 2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>12.95</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>2.16/1ST</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
+          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4881282</t>
+          <t>4096628</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Miele FJM HyClean 3D (4 Stück)</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-fjm-hyclean-3d-4-stueck/p/4881282</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Miele</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2.16/1ST</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Miele FJM HyClean 3D (4 Stück) 50% Aktion 8.95 Schweizer Franken statt 17.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5318,7 +5318,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5770,7 +5770,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5912,7 +5912,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:41</t>
+          <t>2022-08-24 20:57:41</t>
         </is>
       </c>
     </row>
